--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
     <sheet name="Check_Permissions" sheetId="2" r:id="rId2"/>
     <sheet name="Side_Menu" sheetId="3" r:id="rId3"/>
     <sheet name="Log_copying_publications" sheetId="4" r:id="rId4"/>
+    <sheet name="Log_Copying_Music" sheetId="5" r:id="rId5"/>
+    <sheet name="List_Publicutoions" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
   <si>
     <t>field</t>
   </si>
@@ -230,6 +232,39 @@
   </si>
   <si>
     <t>tc_fail</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>take_photo_first_page</t>
+  </si>
+  <si>
+    <t>take_photo_ideftifier_page</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>save_and_continue</t>
+  </si>
+  <si>
+    <t>finish_and_send_yes</t>
+  </si>
+  <si>
+    <t>finish_and_send_no</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>possitive_send</t>
+  </si>
+  <si>
+    <t>possitive_log</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1009,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1152,10 +1187,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1164,9 +1199,10 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1179,8 +1215,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>69</v>
       </c>
@@ -1193,21 +1232,30 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>70</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -1220,45 +1268,57 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>65</v>
       </c>
       <c r="B6">
         <v>999</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>66</v>
       </c>
       <c r="B7">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>68</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
     </row>
@@ -1266,4 +1326,311 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>2381567</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
   <si>
     <t>field</t>
   </si>
@@ -265,6 +265,75 @@
   </si>
   <si>
     <t>good</t>
+  </si>
+  <si>
+    <t>Photocopying</t>
+  </si>
+  <si>
+    <t>Scanning</t>
+  </si>
+  <si>
+    <t>Arrangment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>first_page_cancel_photo</t>
+  </si>
+  <si>
+    <t>ideftifier_page_cancel_photo</t>
+  </si>
+  <si>
+    <t>idef_page_cancel_photo</t>
+  </si>
+  <si>
+    <t>photo_cancel</t>
+  </si>
+  <si>
+    <t>first page_cancel_photo</t>
+  </si>
+  <si>
+    <t>tc_fail_search</t>
+  </si>
+  <si>
+    <t>tc_fail_log</t>
+  </si>
+  <si>
+    <t>first page only</t>
+  </si>
+  <si>
+    <t>identif page only</t>
+  </si>
+  <si>
+    <t>pos_2_photos</t>
+  </si>
+  <si>
+    <t>0000000000</t>
+  </si>
+  <si>
+    <t>pos_first_search</t>
+  </si>
+  <si>
+    <t>some</t>
+  </si>
+  <si>
+    <t>neg_text</t>
+  </si>
+  <si>
+    <t>neg_iden_seach</t>
+  </si>
+  <si>
+    <t>neg_wrong_range</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>pos_log</t>
+  </si>
+  <si>
+    <t>wrong range</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1202,7 +1271,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1219,24 +1288,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1249,76 +1312,122 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>64</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>65</v>
       </c>
-      <c r="B6">
+      <c r="C8">
         <v>999</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E8" t="s">
         <v>71</v>
       </c>
-      <c r="E6">
+      <c r="F8">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="B7">
+      <c r="C9">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E9" t="s">
         <v>71</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>67</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>71</v>
       </c>
-      <c r="E8">
+      <c r="F10">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>68</v>
       </c>
-      <c r="E9">
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -1330,22 +1439,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="O11:P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1361,130 +1477,526 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K2" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" t="s">
+        <v>102</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
         <v>72</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>73</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="F10" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
         <v>64</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
+      <c r="M11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
         <v>65</v>
       </c>
-      <c r="B9">
+      <c r="I12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
         <v>999</v>
       </c>
-      <c r="D9" t="s">
+      <c r="O12">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
         <v>71</v>
       </c>
-      <c r="E9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="N13">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
+      <c r="O13">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
         <v>71</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
         <v>68</v>
       </c>
-      <c r="E12">
-        <v>1</v>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3">
+      <c r="C31" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1492,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1545,7 +2057,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -19,22 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="105">
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>TC_1_value</t>
-  </si>
-  <si>
-    <t>TC_2_value</t>
-  </si>
-  <si>
-    <t>TC_3_value</t>
-  </si>
-  <si>
-    <t>TC_4_value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
   <si>
     <t>search</t>
   </si>
@@ -126,9 +111,6 @@
     <t>SE12 7HU</t>
   </si>
   <si>
-    <t>TC_5_value</t>
-  </si>
-  <si>
     <t>warning_message</t>
   </si>
   <si>
@@ -159,9 +141,6 @@
     <t>Postcode - inrorrect</t>
   </si>
   <si>
-    <t>TC_6_value</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>TestGalaxy@cla.co.uk</t>
   </si>
   <si>
-    <t>TC_7_value</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -231,9 +207,6 @@
     <t>take_photo</t>
   </si>
   <si>
-    <t>tc_fail</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -273,9 +246,6 @@
     <t>Scanning</t>
   </si>
   <si>
-    <t>Arrangment</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -334,13 +304,19 @@
   </si>
   <si>
     <t>wrong range</t>
+  </si>
+  <si>
+    <t>field/TC_number</t>
+  </si>
+  <si>
+    <t>Arrangement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,13 +347,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -420,14 +389,13 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -727,7 +695,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -743,125 +711,125 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
       <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
         <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +847,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -893,50 +861,50 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -953,106 +921,106 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1078,7 +1046,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1095,154 +1063,154 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="str">
         <f>Registration!G2</f>
         <v>Correct</v>
       </c>
       <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B3" t="str">
         <f>Registration!G3</f>
         <v>TestGalaxy</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" t="str">
         <f>Registration!G4</f>
         <v>SE12 7HU</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B5" t="str">
         <f>Registration!G5</f>
         <v>TestGalaxy@cla.co.uk</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
         <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1256,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,60 +1236,76 @@
     <col min="2" max="2" width="17" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1333,102 +1317,116 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9">
         <v>999</v>
       </c>
-      <c r="E8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8">
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
         <v>13</v>
       </c>
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1442,17 +1440,17 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="O11:P11"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
@@ -1463,101 +1461,101 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>57</v>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
         <v>93</v>
-      </c>
-      <c r="E2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M2" t="s">
-        <v>78</v>
-      </c>
-      <c r="N2" t="s">
-        <v>101</v>
-      </c>
-      <c r="O2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1578,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1604,7 +1602,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1619,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1651,39 +1649,39 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="K5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1730,7 +1728,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1777,7 +1775,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1801,22 +1799,22 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -1824,7 +1822,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1871,47 +1869,47 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="J11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="O11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1928,10 +1926,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -1945,10 +1943,10 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1968,7 +1966,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1991,7 +1989,7 @@
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2005,7 +2003,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2020,44 +2018,42 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2074,26 +2070,26 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>2381567</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2110,7 +2106,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2127,7 +2123,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
   <si>
     <t>search</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>Arrangement</t>
+  </si>
+  <si>
+    <t>tc_fail</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
@@ -2002,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2053,7 +2056,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
-    <sheet name="Check_Permissions" sheetId="2" r:id="rId2"/>
-    <sheet name="Side_Menu" sheetId="3" r:id="rId3"/>
+    <sheet name="Side_Menu" sheetId="3" r:id="rId2"/>
+    <sheet name="Check_Permissions" sheetId="2" r:id="rId3"/>
     <sheet name="Log_copying_publications" sheetId="4" r:id="rId4"/>
     <sheet name="Log_Copying_Music" sheetId="5" r:id="rId5"/>
-    <sheet name="List_Publicutoions" sheetId="6" r:id="rId6"/>
+    <sheet name="List_Publications" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
   <si>
     <t>search</t>
   </si>
@@ -231,15 +231,6 @@
     <t>empty</t>
   </si>
   <si>
-    <t>possitive_send</t>
-  </si>
-  <si>
-    <t>possitive_log</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>Photocopying</t>
   </si>
   <si>
@@ -306,20 +297,47 @@
     <t>wrong range</t>
   </si>
   <si>
-    <t>field/TC_number</t>
-  </si>
-  <si>
     <t>Arrangement</t>
   </si>
   <si>
     <t>tc_fail</t>
+  </si>
+  <si>
+    <t>seacrh_book_by_issn</t>
+  </si>
+  <si>
+    <t>parameter/TC_number</t>
+  </si>
+  <si>
+    <t>empty search</t>
+  </si>
+  <si>
+    <t>issn_finish_and_send_no</t>
+  </si>
+  <si>
+    <t>isbn save_and_continue</t>
+  </si>
+  <si>
+    <t>text finish and send</t>
+  </si>
+  <si>
+    <t>seacrh_journal_by_isbn</t>
+  </si>
+  <si>
+    <t>seacrh_website_and_log_copying</t>
+  </si>
+  <si>
+    <t>search_by_title_with_more_then one results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02173948 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,14 +367,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,12 +378,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -392,13 +398,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -698,7 +708,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -847,209 +857,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1068,7 +879,7 @@
       <c r="A1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
       <c r="C1" s="1">
@@ -1094,7 +905,7 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B2" s="4" t="str">
         <f>Registration!G2</f>
         <v>Correct</v>
       </c>
@@ -1121,7 +932,7 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="str">
+      <c r="B3" s="4" t="str">
         <f>Registration!G3</f>
         <v>TestGalaxy</v>
       </c>
@@ -1145,7 +956,7 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="str">
+      <c r="B4" s="4" t="str">
         <f>Registration!G4</f>
         <v>SE12 7HU</v>
       </c>
@@ -1166,7 +977,7 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="4" t="str">
         <f>Registration!G5</f>
         <v>TestGalaxy@cla.co.uk</v>
       </c>
@@ -1187,6 +998,7 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
+      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>33</v>
       </c>
@@ -1210,11 +1022,13 @@
       <c r="A7" t="s">
         <v>41</v>
       </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>42</v>
       </c>
+      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1222,6 +1036,269 @@
     <hyperlink ref="H5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="C14" s="7"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1230,7 +1307,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,10 +1345,10 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>69</v>
@@ -1285,7 +1362,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1305,7 +1382,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1345,7 +1422,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1376,13 +1453,13 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1430,6 +1507,21 @@
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>60</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1443,19 +1535,19 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="O2" sqref="O2:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="9" max="9" width="11.140625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
@@ -1514,28 +1606,28 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>83</v>
-      </c>
       <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" t="s">
         <v>84</v>
       </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>87</v>
-      </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
         <v>69</v>
@@ -1550,15 +1642,15 @@
         <v>69</v>
       </c>
       <c r="N2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1605,7 +1697,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1655,31 +1747,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1731,7 +1823,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1825,7 +1917,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1875,7 +1967,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1883,28 +1975,28 @@
         <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1989,10 +2081,34 @@
       <c r="G15">
         <v>0</v>
       </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2005,17 +2121,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2042,21 +2158,21 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2076,10 +2192,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2381567</v>
-      </c>
-      <c r="D4" t="s">
-        <v>72</v>
+        <v>24026026</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9781134601615</v>
       </c>
       <c r="E4" t="s">
         <v>51</v>
@@ -2101,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2118,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2143,5 +2259,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
   <si>
     <t>search</t>
   </si>
@@ -117,30 +117,15 @@
     <t>tc_name</t>
   </si>
   <si>
-    <t xml:space="preserve">All fields are empty </t>
-  </si>
-  <si>
     <t>Please enter an organisation name</t>
   </si>
   <si>
     <t>Please enter a valid postcode</t>
   </si>
   <si>
-    <t>Check email validation - Empty</t>
-  </si>
-  <si>
     <t>Please enter a valid email</t>
   </si>
   <si>
-    <t>Check email validation - Incorrect</t>
-  </si>
-  <si>
-    <t>Postcode - empty</t>
-  </si>
-  <si>
-    <t>Postcode - inrorrect</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t>subsector</t>
   </si>
   <si>
-    <t>Correct</t>
-  </si>
-  <si>
     <t>ChangedTestGalaxy</t>
   </si>
   <si>
@@ -228,9 +210,6 @@
     <t>finish_and_send_no</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>Photocopying</t>
   </si>
   <si>
@@ -246,91 +225,151 @@
     <t>ideftifier_page_cancel_photo</t>
   </si>
   <si>
-    <t>idef_page_cancel_photo</t>
-  </si>
-  <si>
     <t>photo_cancel</t>
   </si>
   <si>
-    <t>first page_cancel_photo</t>
-  </si>
-  <si>
     <t>tc_fail_search</t>
   </si>
   <si>
     <t>tc_fail_log</t>
   </si>
   <si>
-    <t>first page only</t>
-  </si>
-  <si>
-    <t>identif page only</t>
-  </si>
-  <si>
-    <t>pos_2_photos</t>
-  </si>
-  <si>
     <t>0000000000</t>
   </si>
   <si>
-    <t>pos_first_search</t>
-  </si>
-  <si>
     <t>some</t>
   </si>
   <si>
-    <t>neg_text</t>
-  </si>
-  <si>
-    <t>neg_iden_seach</t>
-  </si>
-  <si>
-    <t>neg_wrong_range</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
-    <t>pos_log</t>
-  </si>
-  <si>
-    <t>wrong range</t>
-  </si>
-  <si>
     <t>Arrangement</t>
   </si>
   <si>
     <t>tc_fail</t>
   </si>
   <si>
-    <t>seacrh_book_by_issn</t>
-  </si>
-  <si>
     <t>parameter/TC_number</t>
   </si>
   <si>
-    <t>empty search</t>
-  </si>
-  <si>
-    <t>issn_finish_and_send_no</t>
-  </si>
-  <si>
-    <t>isbn save_and_continue</t>
-  </si>
-  <si>
-    <t>text finish and send</t>
-  </si>
-  <si>
-    <t>seacrh_journal_by_isbn</t>
-  </si>
-  <si>
-    <t>seacrh_website_and_log_copying</t>
-  </si>
-  <si>
-    <t>search_by_title_with_more_then one results</t>
-  </si>
-  <si>
     <t xml:space="preserve">02173948 </t>
+  </si>
+  <si>
+    <t>photo cancel</t>
+  </si>
+  <si>
+    <t>log text</t>
+  </si>
+  <si>
+    <t>pass with photo</t>
+  </si>
+  <si>
+    <t>wrong page range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log empty all </t>
+  </si>
+  <si>
+    <t>log empty from</t>
+  </si>
+  <si>
+    <t>log empty to</t>
+  </si>
+  <si>
+    <t>log empty copies</t>
+  </si>
+  <si>
+    <t>F first page cancel photo</t>
+  </si>
+  <si>
+    <t>F first page only</t>
+  </si>
+  <si>
+    <t>P 2 photos</t>
+  </si>
+  <si>
+    <t>F empty all</t>
+  </si>
+  <si>
+    <t>F empty from</t>
+  </si>
+  <si>
+    <t>F empty to</t>
+  </si>
+  <si>
+    <t>F empty copies</t>
+  </si>
+  <si>
+    <t>P first photo search</t>
+  </si>
+  <si>
+    <t>F iden photo search</t>
+  </si>
+  <si>
+    <t>F wrong page range</t>
+  </si>
+  <si>
+    <t>P log with photos</t>
+  </si>
+  <si>
+    <t>F iden page only</t>
+  </si>
+  <si>
+    <t>F iden page cancel photo</t>
+  </si>
+  <si>
+    <t>F text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F all fields are empty </t>
+  </si>
+  <si>
+    <t>F email empty</t>
+  </si>
+  <si>
+    <t>F postcode empty</t>
+  </si>
+  <si>
+    <t>F email incorrect</t>
+  </si>
+  <si>
+    <t>P correct</t>
+  </si>
+  <si>
+    <t>F postcode incorrect</t>
+  </si>
+  <si>
+    <t>P changed correct</t>
+  </si>
+  <si>
+    <t>P check registration</t>
+  </si>
+  <si>
+    <t>F empty search</t>
+  </si>
+  <si>
+    <t>P - search by title with more then one results</t>
+  </si>
+  <si>
+    <t>P - search book by issn</t>
+  </si>
+  <si>
+    <t>P - search website and log copying</t>
+  </si>
+  <si>
+    <t>P - search journal by isbn</t>
+  </si>
+  <si>
+    <t>P - text finish and send</t>
+  </si>
+  <si>
+    <t>F -  empty search</t>
+  </si>
+  <si>
+    <t>P - issn finish and send no</t>
+  </si>
+  <si>
+    <t>P - isbn save and continue</t>
   </si>
 </sst>
 </file>
@@ -708,7 +747,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B2" sqref="B2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -719,12 +758,12 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="24" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -750,31 +789,28 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
@@ -785,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -816,10 +852,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -827,22 +863,22 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -860,14 +896,14 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
@@ -877,7 +913,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4">
         <v>1</v>
@@ -905,27 +941,26 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>Registration!G2</f>
-        <v>Correct</v>
+      <c r="B2" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>105</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -949,7 +984,7 @@
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -970,7 +1005,7 @@
         <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -988,10 +1023,10 @@
         <v>27</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1000,33 +1035,33 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="4"/>
     </row>
@@ -1044,23 +1079,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1083,19 +1118,19 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1106,13 +1141,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1143,19 +1178,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1169,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1223,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1240,10 +1275,10 @@
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G11" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1268,7 +1303,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1304,25 +1339,27 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1340,30 +1377,39 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>69</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
       <c r="B3">
         <v>1</v>
       </c>
@@ -1379,10 +1425,19 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1397,12 +1452,21 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1419,10 +1483,19 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1439,74 +1512,110 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>999</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
+      <c r="E9">
+        <v>11</v>
       </c>
       <c r="F9">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1521,6 +1630,15 @@
         <v>0</v>
       </c>
       <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>0</v>
       </c>
     </row>
@@ -1535,28 +1653,31 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O15"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1606,51 +1727,51 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="J2" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="N2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1697,7 +1818,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1747,36 +1868,36 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1823,7 +1944,7 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1870,7 +1991,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1917,7 +2038,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1967,49 +2088,49 @@
         <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I11" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="L12">
         <v>1</v>
       </c>
       <c r="N12">
@@ -2021,12 +2142,15 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="I13" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13">
         <v>3</v>
       </c>
       <c r="N13">
@@ -2038,19 +2162,16 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>4</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -2061,7 +2182,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2108,7 +2229,7 @@
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2121,15 +2242,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
@@ -2137,7 +2258,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2158,21 +2279,21 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2198,17 +2319,17 @@
         <v>9781134601615</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2225,7 +2346,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2242,7 +2363,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Registration" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1376,6 +1376,15 @@
       <c r="F1" s="1">
         <v>5</v>
       </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
@@ -1639,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="24780" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Registration" sheetId="1" r:id="rId1"/>
-    <sheet name="Side_Menu" sheetId="3" r:id="rId2"/>
-    <sheet name="Check_Permissions" sheetId="2" r:id="rId3"/>
+    <sheet name="Check_Permissions" sheetId="2" r:id="rId1"/>
+    <sheet name="Registration" sheetId="1" r:id="rId2"/>
+    <sheet name="Side_Menu" sheetId="3" r:id="rId3"/>
     <sheet name="Log_copying_publications" sheetId="4" r:id="rId4"/>
     <sheet name="Log_Copying_Music" sheetId="5" r:id="rId5"/>
     <sheet name="List_Publications" sheetId="6" r:id="rId6"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
   <si>
     <t>search</t>
   </si>
@@ -195,9 +195,6 @@
     <t>take_photo_first_page</t>
   </si>
   <si>
-    <t>take_photo_ideftifier_page</t>
-  </si>
-  <si>
     <t>counter</t>
   </si>
   <si>
@@ -252,9 +249,6 @@
     <t>parameter/TC_number</t>
   </si>
   <si>
-    <t xml:space="preserve">02173948 </t>
-  </si>
-  <si>
     <t>photo cancel</t>
   </si>
   <si>
@@ -321,33 +315,6 @@
     <t>F text</t>
   </si>
   <si>
-    <t xml:space="preserve">F all fields are empty </t>
-  </si>
-  <si>
-    <t>F email empty</t>
-  </si>
-  <si>
-    <t>F postcode empty</t>
-  </si>
-  <si>
-    <t>F email incorrect</t>
-  </si>
-  <si>
-    <t>P correct</t>
-  </si>
-  <si>
-    <t>F postcode incorrect</t>
-  </si>
-  <si>
-    <t>P changed correct</t>
-  </si>
-  <si>
-    <t>P check registration</t>
-  </si>
-  <si>
-    <t>F empty search</t>
-  </si>
-  <si>
     <t>P - search by title with more then one results</t>
   </si>
   <si>
@@ -360,9 +327,6 @@
     <t>P - search journal by isbn</t>
   </si>
   <si>
-    <t>P - text finish and send</t>
-  </si>
-  <si>
     <t>F -  empty search</t>
   </si>
   <si>
@@ -370,13 +334,70 @@
   </si>
   <si>
     <t>P - isbn save and continue</t>
+  </si>
+  <si>
+    <t>P - five page ranges</t>
+  </si>
+  <si>
+    <t>barcode_check</t>
+  </si>
+  <si>
+    <t>P - search barcode</t>
+  </si>
+  <si>
+    <t>P - text finish and send yes</t>
+  </si>
+  <si>
+    <t>take_photo_identifier_page</t>
+  </si>
+  <si>
+    <t>P - barcode</t>
+  </si>
+  <si>
+    <t>P- barcode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2173948 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">F -  all fields are empty </t>
+  </si>
+  <si>
+    <t>F  - email empty</t>
+  </si>
+  <si>
+    <t>F  - postcode empty</t>
+  </si>
+  <si>
+    <t>F - postcode incorrect</t>
+  </si>
+  <si>
+    <t>F - email incorrect</t>
+  </si>
+  <si>
+    <t>P - correct</t>
+  </si>
+  <si>
+    <t>P  - check registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F - all fields are empty </t>
+  </si>
+  <si>
+    <t>F  - postcode incorrect</t>
+  </si>
+  <si>
+    <t>P - changed correct</t>
+  </si>
+  <si>
+    <t>F - empty search</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,25 +420,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -429,28 +438,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+  <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -744,10 +748,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="E15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -763,7 +1137,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -789,22 +1163,22 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -891,19 +1265,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="20.140625" customWidth="1"/>
@@ -913,9 +1287,9 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4">
+        <v>75</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
       <c r="C1" s="1">
@@ -941,33 +1315,33 @@
       <c r="A2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>107</v>
+      <c r="B2" t="s">
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="4" t="str">
+      <c r="B3" t="str">
         <f>Registration!G3</f>
         <v>TestGalaxy</v>
       </c>
@@ -991,7 +1365,7 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="str">
+      <c r="B4" t="str">
         <f>Registration!G4</f>
         <v>SE12 7HU</v>
       </c>
@@ -1012,7 +1386,7 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="4" t="str">
+      <c r="B5" t="str">
         <f>Registration!G5</f>
         <v>TestGalaxy@cla.co.uk</v>
       </c>
@@ -1033,7 +1407,6 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4"/>
       <c r="C6" t="s">
         <v>32</v>
       </c>
@@ -1057,13 +1430,11 @@
       <c r="A7" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1075,274 +1446,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="41.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="9">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="C14" s="7"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="C15" s="7"/>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A9" sqref="A9:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1355,11 +1464,13 @@
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1385,270 +1496,359 @@
       <c r="I1" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
         <v>50</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="D8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" t="s">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>999</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>11</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
       </c>
       <c r="H10" t="s">
         <v>56</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11">
         <v>13</v>
       </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>56</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>54</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1659,10 +1859,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="P12" sqref="P12:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1682,11 +1882,13 @@
     <col min="13" max="13" width="12.7109375" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" customWidth="1"/>
     <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1730,515 +1932,637 @@
       <c r="O1" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>31</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="K2" t="s">
         <v>88</v>
       </c>
-      <c r="G2" t="s">
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" t="s">
+        <v>93</v>
+      </c>
+      <c r="O2" t="s">
         <v>94</v>
       </c>
-      <c r="H2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L2" t="s">
-        <v>91</v>
-      </c>
-      <c r="M2" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s">
+        <v>72</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" t="s">
-        <v>72</v>
-      </c>
-      <c r="I5" t="s">
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5" t="s">
-        <v>73</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J12" t="s">
         <v>63</v>
       </c>
-      <c r="L11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" t="s">
+      <c r="K12" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12" t="s">
+        <v>62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>62</v>
+      </c>
+      <c r="P12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
         <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>999</v>
-      </c>
-      <c r="O12">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" t="s">
-        <v>52</v>
       </c>
       <c r="I13" t="s">
         <v>56</v>
       </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
       <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>999</v>
       </c>
       <c r="O13">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>999</v>
+      </c>
+      <c r="P13">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I14" t="s">
         <v>56</v>
       </c>
-      <c r="K14">
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14">
         <v>3</v>
       </c>
-      <c r="M14">
+      <c r="N14">
+        <v>13</v>
+      </c>
+      <c r="O14">
+        <v>998</v>
+      </c>
+      <c r="P14">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="M15">
         <v>4</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
         <v>999</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" t="s">
+      <c r="P15">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
         <v>54</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +2576,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2260,14 +2584,14 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="24.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2288,21 +2612,21 @@
         <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2324,7 +2648,7 @@
       <c r="C4">
         <v>24026026</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>9781134601615</v>
       </c>
       <c r="E4" t="s">
@@ -2333,12 +2657,12 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2355,7 +2679,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2372,7 +2696,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8">
         <v>0</v>

--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
   <si>
     <t>search</t>
   </si>
@@ -751,7 +751,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -864,6 +864,9 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="C6">
         <v>1</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>74</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1090,6 +1093,9 @@
     <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>69</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1270,7 +1276,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1406,6 +1412,9 @@
     <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>

--- a/Mobile_android/Testing_Data.xlsx
+++ b/Mobile_android/Testing_Data.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Log_copying_publications" sheetId="4" r:id="rId4"/>
     <sheet name="Log_Copying_Music" sheetId="5" r:id="rId5"/>
     <sheet name="List_Publications" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="124">
   <si>
     <t>search</t>
   </si>
@@ -39,9 +40,6 @@
     <t>United Kingdom of Great Britain &amp; N. Ireland</t>
   </si>
   <si>
-    <t>BCS Learning and Development Limited</t>
-  </si>
-  <si>
     <t>neurope.eu</t>
   </si>
   <si>
@@ -57,12 +55,6 @@
     <t>Mandating Web Publisher</t>
   </si>
   <si>
-    <t>Journal/Magazine</t>
-  </si>
-  <si>
-    <t>02173948</t>
-  </si>
-  <si>
     <t>Hello Limited</t>
   </si>
   <si>
@@ -159,18 +151,6 @@
     <t>harry potter</t>
   </si>
   <si>
-    <t>HARRY POTTER</t>
-  </si>
-  <si>
-    <t>9780747555162</t>
-  </si>
-  <si>
-    <t>Bloomsbury Adult Publishing</t>
-  </si>
-  <si>
-    <t>HELLO</t>
-  </si>
-  <si>
     <t>usage</t>
   </si>
   <si>
@@ -357,9 +337,6 @@
     <t>P- barcode</t>
   </si>
   <si>
-    <t xml:space="preserve">2173948 </t>
-  </si>
-  <si>
     <t xml:space="preserve">F -  all fields are empty </t>
   </si>
   <si>
@@ -391,13 +368,37 @@
   </si>
   <si>
     <t>F - empty search</t>
+  </si>
+  <si>
+    <t>02143887</t>
+  </si>
+  <si>
+    <t>Print &amp; Digital</t>
+  </si>
+  <si>
+    <t>HELLO!</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>9781783296019</t>
+  </si>
+  <si>
+    <t>Titan Publishing Group Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCS Learning and Development Limited </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +420,11 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="FsElliot"/>
     </font>
   </fonts>
   <fills count="2">
@@ -445,7 +451,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -453,6 +459,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -751,7 +759,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C22" sqref="C22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -768,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -791,30 +799,30 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -843,26 +851,26 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -885,47 +893,47 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
+      <c r="D8" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>3</v>
@@ -933,27 +941,27 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>117</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -968,29 +976,29 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
+        <v>123</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1013,15 +1021,15 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C15" s="6"/>
       <c r="E15">
@@ -1030,7 +1038,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>998</v>
@@ -1038,7 +1046,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E17">
         <v>999</v>
@@ -1046,7 +1054,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1069,10 +1077,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1092,7 +1100,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1112,6 +1120,9 @@
       <c r="G20">
         <v>0</v>
       </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="D24" s="8"/>
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="6"/>
@@ -1127,7 +1138,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1143,7 +1154,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1166,99 +1177,102 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1290,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1293,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1319,139 +1333,137 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
         <v>114</v>
-      </c>
-      <c r="E2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="str">
-        <f>Registration!G3</f>
-        <v>TestGalaxy</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="str">
-        <f>Registration!G4</f>
-        <v>SE12 7HU</v>
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="str">
-        <f>Registration!G5</f>
-        <v>TestGalaxy@cla.co.uk</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>32</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G5" r:id="rId1"/>
     <hyperlink ref="H5" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1479,7 +1491,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1514,42 +1526,42 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2" t="s">
-        <v>83</v>
-      </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1584,7 +1596,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1619,7 +1631,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1654,7 +1666,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1689,7 +1701,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1724,41 +1736,41 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>999</v>
@@ -1770,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I10">
         <v>17</v>
@@ -1781,7 +1793,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -1793,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1804,7 +1816,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1816,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I12">
         <v>13</v>
@@ -1827,7 +1839,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1897,7 +1909,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -1950,60 +1962,60 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
         <v>84</v>
       </c>
-      <c r="C2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" t="s">
         <v>86</v>
       </c>
-      <c r="G2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="O2" t="s">
         <v>87</v>
       </c>
-      <c r="K2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N2" t="s">
-        <v>93</v>
-      </c>
-      <c r="O2" t="s">
-        <v>94</v>
-      </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2056,7 +2068,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2109,7 +2121,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2165,39 +2177,39 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="K6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2250,7 +2262,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2303,7 +2315,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2356,7 +2368,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2409,50 +2421,50 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J12" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="K12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P12" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I13" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -2472,10 +2484,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -2495,10 +2507,10 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -2518,7 +2530,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2571,7 +2583,7 @@
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2600,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1">
         <v>1</v>
@@ -2618,24 +2630,24 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2661,17 +2673,17 @@
         <v>9781134601615</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2688,7 +2700,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2705,7 +2717,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2724,4 +2736,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>